--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agrn-Dag1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agrn-Dag1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.45425133333334</v>
+        <v>37.84230566666667</v>
       </c>
       <c r="H2">
-        <v>55.362754</v>
+        <v>113.526917</v>
       </c>
       <c r="I2">
-        <v>0.3394975357727733</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="J2">
-        <v>0.3394975357727731</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.36407333333333</v>
+        <v>20.94338233333333</v>
       </c>
       <c r="N2">
-        <v>34.09222</v>
+        <v>62.830147</v>
       </c>
       <c r="O2">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="P2">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="Q2">
-        <v>209.7154654637644</v>
+        <v>792.5458759518665</v>
       </c>
       <c r="R2">
-        <v>1887.43918917388</v>
+        <v>7132.912883566799</v>
       </c>
       <c r="S2">
-        <v>0.01331736400484862</v>
+        <v>0.03036318801677765</v>
       </c>
       <c r="T2">
-        <v>0.01331736400484861</v>
+        <v>0.03036318801677765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.45425133333334</v>
+        <v>37.84230566666667</v>
       </c>
       <c r="H3">
-        <v>55.362754</v>
+        <v>113.526917</v>
       </c>
       <c r="I3">
-        <v>0.3394975357727733</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="J3">
-        <v>0.3394975357727731</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>110.01276</v>
       </c>
       <c r="O3">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="P3">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="Q3">
-        <v>676.73437430456</v>
+        <v>1387.71216371788</v>
       </c>
       <c r="R3">
-        <v>6090.609368741039</v>
+        <v>12489.40947346092</v>
       </c>
       <c r="S3">
-        <v>0.04297402662830551</v>
+        <v>0.05316457585440052</v>
       </c>
       <c r="T3">
-        <v>0.0429740266283055</v>
+        <v>0.05316457585440053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.45425133333334</v>
+        <v>37.84230566666667</v>
       </c>
       <c r="H4">
-        <v>55.362754</v>
+        <v>113.526917</v>
       </c>
       <c r="I4">
-        <v>0.3394975357727733</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="J4">
-        <v>0.3394975357727731</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>236.9790546666667</v>
+        <v>284.2332763333333</v>
       </c>
       <c r="N4">
-        <v>710.9371639999999</v>
+        <v>852.6998289999999</v>
       </c>
       <c r="O4">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572833</v>
       </c>
       <c r="P4">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572834</v>
       </c>
       <c r="Q4">
-        <v>4373.271035554407</v>
+        <v>10756.04252364413</v>
       </c>
       <c r="R4">
-        <v>39359.43931998965</v>
+        <v>96804.38271279717</v>
       </c>
       <c r="S4">
-        <v>0.2777117183205658</v>
+        <v>0.4120742424779167</v>
       </c>
       <c r="T4">
-        <v>0.2777117183205657</v>
+        <v>0.4120742424779167</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.45425133333334</v>
+        <v>37.84230566666667</v>
       </c>
       <c r="H5">
-        <v>55.362754</v>
+        <v>113.526917</v>
       </c>
       <c r="I5">
-        <v>0.3394975357727733</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="J5">
-        <v>0.3394975357727731</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.688545666666666</v>
+        <v>6.355709333333334</v>
       </c>
       <c r="N5">
-        <v>14.065637</v>
+        <v>19.067128</v>
       </c>
       <c r="O5">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="P5">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="Q5">
-        <v>86.52360012047755</v>
+        <v>240.5146953204863</v>
       </c>
       <c r="R5">
-        <v>778.712401084298</v>
+        <v>2164.632257884376</v>
       </c>
       <c r="S5">
-        <v>0.005494426819053347</v>
+        <v>0.009214347252823803</v>
       </c>
       <c r="T5">
-        <v>0.005494426819053345</v>
+        <v>0.009214347252823805</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.88630666666667</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H6">
-        <v>47.65892000000001</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I6">
-        <v>0.292255798864192</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="J6">
-        <v>0.2922557988641919</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.36407333333333</v>
+        <v>20.94338233333333</v>
       </c>
       <c r="N6">
-        <v>34.09222</v>
+        <v>62.830147</v>
       </c>
       <c r="O6">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="P6">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="Q6">
-        <v>180.5331539558222</v>
+        <v>332.7129943845821</v>
       </c>
       <c r="R6">
-        <v>1624.7983856024</v>
+        <v>2994.41694946124</v>
       </c>
       <c r="S6">
-        <v>0.01146422711771094</v>
+        <v>0.0127465519797086</v>
       </c>
       <c r="T6">
-        <v>0.01146422711771094</v>
+        <v>0.01274655197970861</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.88630666666667</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H7">
-        <v>47.65892000000001</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I7">
-        <v>0.292255798864192</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="J7">
-        <v>0.2922557988641919</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>110.01276</v>
       </c>
       <c r="O7">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="P7">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="Q7">
-        <v>582.5654808688</v>
+        <v>582.5654808687998</v>
       </c>
       <c r="R7">
-        <v>5243.089327819201</v>
+        <v>5243.089327819199</v>
       </c>
       <c r="S7">
-        <v>0.03699410793683208</v>
+        <v>0.02231863891343764</v>
       </c>
       <c r="T7">
-        <v>0.03699410793683208</v>
+        <v>0.02231863891343765</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.88630666666667</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H8">
-        <v>47.65892000000001</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I8">
-        <v>0.292255798864192</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="J8">
-        <v>0.2922557988641919</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>236.9790546666667</v>
+        <v>284.2332763333333</v>
       </c>
       <c r="N8">
-        <v>710.9371639999999</v>
+        <v>852.6998289999999</v>
       </c>
       <c r="O8">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572833</v>
       </c>
       <c r="P8">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572834</v>
       </c>
       <c r="Q8">
-        <v>3764.721936011432</v>
+        <v>4515.416992702741</v>
       </c>
       <c r="R8">
-        <v>33882.49742410288</v>
+        <v>40638.75293432467</v>
       </c>
       <c r="S8">
-        <v>0.2390675970798414</v>
+        <v>0.1729899293954722</v>
       </c>
       <c r="T8">
-        <v>0.2390675970798414</v>
+        <v>0.1729899293954722</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.88630666666667</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H9">
-        <v>47.65892000000001</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I9">
-        <v>0.292255798864192</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="J9">
-        <v>0.2922557988641919</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.688545666666666</v>
+        <v>6.355709333333334</v>
       </c>
       <c r="N9">
-        <v>14.065637</v>
+        <v>19.067128</v>
       </c>
       <c r="O9">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="P9">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="Q9">
-        <v>74.48367428133778</v>
+        <v>100.9687475535289</v>
       </c>
       <c r="R9">
-        <v>670.3530685320401</v>
+        <v>908.7187279817601</v>
       </c>
       <c r="S9">
-        <v>0.004729866729807515</v>
+        <v>0.003868208969107734</v>
       </c>
       <c r="T9">
-        <v>0.004729866729807514</v>
+        <v>0.003868208969107736</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.19095733333334</v>
+        <v>18.76675533333333</v>
       </c>
       <c r="H10">
-        <v>45.572872</v>
+        <v>56.300266</v>
       </c>
       <c r="I10">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672444</v>
       </c>
       <c r="J10">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672445</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.36407333333333</v>
+        <v>20.94338233333333</v>
       </c>
       <c r="N10">
-        <v>34.09222</v>
+        <v>62.830147</v>
       </c>
       <c r="O10">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="P10">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="Q10">
-        <v>172.6311531395378</v>
+        <v>393.0393321021224</v>
       </c>
       <c r="R10">
-        <v>1553.68037825584</v>
+        <v>3537.353988919102</v>
       </c>
       <c r="S10">
-        <v>0.01096243379024052</v>
+        <v>0.01505771148486833</v>
       </c>
       <c r="T10">
-        <v>0.01096243379024052</v>
+        <v>0.01505771148486834</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.19095733333334</v>
+        <v>18.76675533333333</v>
       </c>
       <c r="H11">
-        <v>45.572872</v>
+        <v>56.300266</v>
       </c>
       <c r="I11">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672444</v>
       </c>
       <c r="J11">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672445</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>110.01276</v>
       </c>
       <c r="O11">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="P11">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="Q11">
-        <v>557.06638109408</v>
+        <v>688.1941834882399</v>
       </c>
       <c r="R11">
-        <v>5013.59742984672</v>
+        <v>6193.747651394159</v>
       </c>
       <c r="S11">
-        <v>0.03537486258101175</v>
+        <v>0.02636537520330907</v>
       </c>
       <c r="T11">
-        <v>0.03537486258101175</v>
+        <v>0.02636537520330908</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.19095733333334</v>
+        <v>18.76675533333333</v>
       </c>
       <c r="H12">
-        <v>45.572872</v>
+        <v>56.300266</v>
       </c>
       <c r="I12">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672444</v>
       </c>
       <c r="J12">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672445</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>236.9790546666667</v>
+        <v>284.2332763333333</v>
       </c>
       <c r="N12">
-        <v>710.9371639999999</v>
+        <v>852.6998289999999</v>
       </c>
       <c r="O12">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572833</v>
       </c>
       <c r="P12">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572834</v>
       </c>
       <c r="Q12">
-        <v>3599.938708335001</v>
+        <v>5334.13635453939</v>
       </c>
       <c r="R12">
-        <v>32399.44837501501</v>
+        <v>48007.22719085451</v>
       </c>
       <c r="S12">
-        <v>0.2286035227207663</v>
+        <v>0.2043558486068569</v>
       </c>
       <c r="T12">
-        <v>0.2286035227207663</v>
+        <v>0.204355848606857</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.19095733333334</v>
+        <v>18.76675533333333</v>
       </c>
       <c r="H13">
-        <v>45.572872</v>
+        <v>56.300266</v>
       </c>
       <c r="I13">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672444</v>
       </c>
       <c r="J13">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672445</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.688545666666666</v>
+        <v>6.355709333333334</v>
       </c>
       <c r="N13">
-        <v>14.065637</v>
+        <v>19.067128</v>
       </c>
       <c r="O13">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="P13">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="Q13">
-        <v>71.22349717771823</v>
+        <v>119.2760420284498</v>
       </c>
       <c r="R13">
-        <v>641.011474599464</v>
+        <v>1073.484378256048</v>
       </c>
       <c r="S13">
-        <v>0.004522838768788224</v>
+        <v>0.004569578872210098</v>
       </c>
       <c r="T13">
-        <v>0.004522838768788223</v>
+        <v>0.0045695788722101</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.826026</v>
+        <v>2.467151666666667</v>
       </c>
       <c r="H14">
-        <v>14.478078</v>
+        <v>7.401455</v>
       </c>
       <c r="I14">
-        <v>0.08878300750222795</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="J14">
-        <v>0.08878300750222794</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.36407333333333</v>
+        <v>20.94338233333333</v>
       </c>
       <c r="N14">
-        <v>34.09222</v>
+        <v>62.830147</v>
       </c>
       <c r="O14">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="P14">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="Q14">
-        <v>54.84331337257332</v>
+        <v>51.67050062932055</v>
       </c>
       <c r="R14">
-        <v>493.58982035316</v>
+        <v>465.034505663885</v>
       </c>
       <c r="S14">
-        <v>0.003482663359134747</v>
+        <v>0.001979546134972722</v>
       </c>
       <c r="T14">
-        <v>0.003482663359134746</v>
+        <v>0.001979546134972723</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.826026</v>
+        <v>2.467151666666667</v>
       </c>
       <c r="H15">
-        <v>14.478078</v>
+        <v>7.401455</v>
       </c>
       <c r="I15">
-        <v>0.08878300750222795</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="J15">
-        <v>0.08878300750222794</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>110.01276</v>
       </c>
       <c r="O15">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="P15">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="Q15">
-        <v>176.97481336392</v>
+        <v>90.47272139619999</v>
       </c>
       <c r="R15">
-        <v>1592.77332027528</v>
+        <v>814.2544925658</v>
       </c>
       <c r="S15">
-        <v>0.01123826516106269</v>
+        <v>0.00346609620148878</v>
       </c>
       <c r="T15">
-        <v>0.01123826516106269</v>
+        <v>0.003466096201488781</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.826026</v>
+        <v>2.467151666666667</v>
       </c>
       <c r="H16">
-        <v>14.478078</v>
+        <v>7.401455</v>
       </c>
       <c r="I16">
-        <v>0.08878300750222795</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="J16">
-        <v>0.08878300750222794</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>236.9790546666667</v>
+        <v>284.2332763333333</v>
       </c>
       <c r="N16">
-        <v>710.9371639999999</v>
+        <v>852.6998289999999</v>
       </c>
       <c r="O16">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572833</v>
       </c>
       <c r="P16">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572834</v>
       </c>
       <c r="Q16">
-        <v>1143.667079276755</v>
+        <v>701.2466014279105</v>
       </c>
       <c r="R16">
-        <v>10293.00371349079</v>
+        <v>6311.219412851195</v>
       </c>
       <c r="S16">
-        <v>0.07262521512855338</v>
+        <v>0.02686542577703743</v>
       </c>
       <c r="T16">
-        <v>0.07262521512855337</v>
+        <v>0.02686542577703744</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.826026</v>
+        <v>2.467151666666667</v>
       </c>
       <c r="H17">
-        <v>14.478078</v>
+        <v>7.401455</v>
       </c>
       <c r="I17">
-        <v>0.08878300750222795</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="J17">
-        <v>0.08878300750222794</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.688545666666666</v>
+        <v>6.355709333333334</v>
       </c>
       <c r="N17">
-        <v>14.065637</v>
+        <v>19.067128</v>
       </c>
       <c r="O17">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="P17">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="Q17">
-        <v>22.62704328952066</v>
+        <v>15.68049887458222</v>
       </c>
       <c r="R17">
-        <v>203.643389605686</v>
+        <v>141.12448987124</v>
       </c>
       <c r="S17">
-        <v>0.001436863853477127</v>
+        <v>0.000600734859611743</v>
       </c>
       <c r="T17">
-        <v>0.001436863853477127</v>
+        <v>0.0006007348596117432</v>
       </c>
     </row>
   </sheetData>
